--- a/bulletin/macroeconomics/static/macroeconomics/tables/consumer_price_index2.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/consumer_price_index2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:CZ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,12 +428,30 @@
         </is>
       </c>
       <c r="B1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="M1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BU1" t="n">
         <v>2021</v>
       </c>
-      <c r="C1" t="n">
+      <c r="CG1" t="n">
         <v>2022</v>
       </c>
-      <c r="O1" t="n">
+      <c r="CS1" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -441,105 +459,515 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
+          <t>фев</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>мар</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>апр</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>июн</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>июл</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>авг</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>сен</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>окт</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ноя</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>дек</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>янв</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>фев</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>мар</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>апр</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>май</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>июн</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>июл</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>авг</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>сен</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>окт</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>ноя</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>дек</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>янв</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>фев</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>мар</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>апр</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>май</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>июн</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>июл</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>авг</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>сен</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>окт</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>ноя</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>дек</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>янв</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>фев</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>мар</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>апр</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>июн</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>июл</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>авг</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>сен</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>окт</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>ноя</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>дек</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>янв</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>фев</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>мар</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>апр</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>июн</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>июл</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>авг</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>сен</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>окт</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>ноя</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>дек</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>янв</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>фев</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>мар</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>апр</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>июн</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>июл</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>авг</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>сен</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>окт</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>ноя</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>дек</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>янв</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>фев</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>мар</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>апр</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>июн</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>июл</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>авг</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>сен</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>окт</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>ноя</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>дек</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>янв</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>фев</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>мар</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>апр</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>июн</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>июл</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>авг</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>сен</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>окт</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>ноя</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>дек</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>янв</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>фев</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>мар</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>апр</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>июн</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>июл</t>
+        </is>
+      </c>
+      <c r="CZ2" t="inlineStr">
         <is>
           <t>авг</t>
         </is>
@@ -552,66 +980,312 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="C3" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="D3" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="E3" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>101</v>
+      </c>
+      <c r="J3" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="K3" t="n">
         <v>103.7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="L3" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="CJ3" t="n">
         <v>102</v>
       </c>
-      <c r="G3" t="n">
+      <c r="CK3" t="n">
         <v>101.4</v>
       </c>
-      <c r="H3" t="n">
+      <c r="CL3" t="n">
         <v>101.6</v>
       </c>
-      <c r="I3" t="n">
+      <c r="CM3" t="n">
         <v>101.1</v>
       </c>
-      <c r="J3" t="n">
+      <c r="CN3" t="n">
         <v>101.4</v>
       </c>
-      <c r="K3" t="n">
+      <c r="CO3" t="n">
         <v>101.8</v>
       </c>
-      <c r="L3" t="n">
+      <c r="CP3" t="n">
         <v>101.6</v>
       </c>
-      <c r="M3" t="n">
+      <c r="CQ3" t="n">
         <v>101.4</v>
       </c>
-      <c r="N3" t="n">
+      <c r="CR3" t="n">
         <v>101.2</v>
       </c>
-      <c r="O3" t="n">
+      <c r="CS3" t="n">
         <v>101.1</v>
       </c>
-      <c r="P3" t="n">
+      <c r="CT3" t="n">
         <v>101.3</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="CU3" t="n">
         <v>100.9</v>
       </c>
-      <c r="R3" t="n">
+      <c r="CV3" t="n">
         <v>100.9</v>
       </c>
-      <c r="S3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="T3" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="CW3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="CZ3" t="n">
         <v>100.7</v>
       </c>
     </row>
@@ -622,66 +1296,312 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>100.2</v>
       </c>
       <c r="D4" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="L4" t="n">
         <v>101.2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>105.8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>101</v>
-      </c>
-      <c r="J4" t="n">
-        <v>101</v>
-      </c>
-      <c r="K4" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>101.4</v>
       </c>
       <c r="M4" t="n">
         <v>101.8</v>
       </c>
       <c r="N4" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>102</v>
+      </c>
+      <c r="X4" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>101</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>101</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>101</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="CR4" t="n">
         <v>101.6</v>
       </c>
-      <c r="O4" t="n">
+      <c r="CS4" t="n">
         <v>101.4</v>
       </c>
-      <c r="P4" t="n">
+      <c r="CT4" t="n">
         <v>101.5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="CU4" t="n">
         <v>101.1</v>
       </c>
-      <c r="R4" t="n">
+      <c r="CV4" t="n">
         <v>100.9</v>
       </c>
-      <c r="S4" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="CW4" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="CY4" t="n">
         <v>100.1</v>
       </c>
-      <c r="V4" t="n">
+      <c r="CZ4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -692,43 +1612,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
       <c r="C5" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="E5" t="n">
-        <v>102.8</v>
+        <v>100.8</v>
       </c>
       <c r="F5" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
       <c r="G5" t="n">
-        <v>101.4</v>
+        <v>100.2</v>
       </c>
       <c r="H5" t="n">
-        <v>101.9</v>
+        <v>100.5</v>
       </c>
       <c r="I5" t="n">
-        <v>101.5</v>
+        <v>102</v>
       </c>
       <c r="J5" t="n">
-        <v>101.8</v>
+        <v>110.2</v>
       </c>
       <c r="K5" t="n">
-        <v>101.9</v>
+        <v>106.5</v>
       </c>
       <c r="L5" t="n">
-        <v>101.7</v>
+        <v>101.1</v>
       </c>
       <c r="M5" t="n">
-        <v>101.6</v>
+        <v>100.9</v>
       </c>
       <c r="N5" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="O5" t="n">
         <v>100.9</v>
@@ -737,21 +1657,267 @@
         <v>100.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="R5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AG5" t="n">
         <v>101.3</v>
       </c>
-      <c r="S5" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="U5" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="AH5" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>101</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>101</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CZ5" t="n">
         <v>100.5</v>
       </c>
     </row>
@@ -762,66 +1928,312 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.5</v>
+        <v>101.3</v>
       </c>
       <c r="C6" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="D6" t="n">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="K6" t="n">
         <v>101.4</v>
       </c>
-      <c r="F6" t="n">
+      <c r="L6" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AI6" t="n">
         <v>101</v>
       </c>
-      <c r="G6" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="AJ6" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>101</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CN6" t="n">
         <v>101.6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="CO6" t="n">
         <v>102.7</v>
       </c>
-      <c r="L6" t="n">
+      <c r="CP6" t="n">
         <v>101.7</v>
       </c>
-      <c r="M6" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="CQ6" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CT6" t="n">
         <v>101.3</v>
       </c>
-      <c r="Q6" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="R6" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="CU6" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="CY6" t="n">
         <v>101</v>
       </c>
-      <c r="V6" t="n">
+      <c r="CZ6" t="n">
         <v>101.9</v>
       </c>
     </row>
@@ -832,74 +2244,326 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.8</v>
+        <v>91.7</v>
       </c>
       <c r="C7" t="n">
-        <v>100.5</v>
+        <v>103.6</v>
       </c>
       <c r="D7" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>99</v>
+      </c>
+      <c r="H7" t="n">
+        <v>98</v>
+      </c>
+      <c r="I7" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>103</v>
+      </c>
+      <c r="P7" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>102</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="AH7" t="n">
         <v>102.6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="AI7" t="n">
+        <v>102</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>103</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>98</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>89</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>106</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>105.1</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="CI7" t="n">
         <v>112.4</v>
       </c>
-      <c r="F7" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="CJ7" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="CK7" t="n">
         <v>94.09999999999999</v>
       </c>
-      <c r="H7" t="n">
+      <c r="CL7" t="n">
         <v>102.5</v>
       </c>
-      <c r="I7" t="n">
+      <c r="CM7" t="n">
         <v>105.2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="CN7" t="n">
         <v>97.8</v>
       </c>
-      <c r="K7" t="n">
+      <c r="CO7" t="n">
         <v>96.8</v>
       </c>
-      <c r="L7" t="n">
+      <c r="CP7" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="M7" t="n">
+      <c r="CQ7" t="n">
         <v>99.2</v>
       </c>
-      <c r="N7" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="CR7" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="CS7" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="P7" t="n">
+      <c r="CT7" t="n">
         <v>100.1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="CU7" t="n">
         <v>99.3</v>
       </c>
-      <c r="R7" t="n">
+      <c r="CV7" t="n">
         <v>98.8</v>
       </c>
-      <c r="S7" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="CW7" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="CX7" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="U7" t="n">
+      <c r="CY7" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="V7" t="n">
+      <c r="CZ7" t="n">
         <v>101.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:V1"/>
+  <mergeCells count="9">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:X1"/>
+    <mergeCell ref="Y1:AJ1"/>
+    <mergeCell ref="AK1:AV1"/>
+    <mergeCell ref="AW1:BH1"/>
+    <mergeCell ref="BI1:BT1"/>
+    <mergeCell ref="BU1:CF1"/>
+    <mergeCell ref="CG1:CR1"/>
+    <mergeCell ref="CS1:CZ1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/consumer_price_index2.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/consumer_price_index2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,11 @@
           <t>авг</t>
         </is>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>сен</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -614,6 +619,9 @@
       <c r="V3" t="n">
         <v>100.7</v>
       </c>
+      <c r="W3" t="n">
+        <v>100.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -684,6 +692,9 @@
       <c r="V4" t="n">
         <v>100</v>
       </c>
+      <c r="W4" t="n">
+        <v>100.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -754,6 +765,9 @@
       <c r="V5" t="n">
         <v>100.5</v>
       </c>
+      <c r="W5" t="n">
+        <v>100.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -824,6 +838,9 @@
       <c r="V6" t="n">
         <v>101.9</v>
       </c>
+      <c r="W6" t="n">
+        <v>100.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -894,12 +911,13 @@
       <c r="V7" t="n">
         <v>101.7</v>
       </c>
+      <c r="W7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1"/>
     <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="O1:W1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/consumer_price_index2.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/consumer_price_index2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,11 +544,6 @@
           <t>авг</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>сен</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -619,9 +614,6 @@
       <c r="V3" t="n">
         <v>100.7</v>
       </c>
-      <c r="W3" t="n">
-        <v>100.6</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -692,9 +684,6 @@
       <c r="V4" t="n">
         <v>100</v>
       </c>
-      <c r="W4" t="n">
-        <v>100.3</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -765,9 +754,6 @@
       <c r="V5" t="n">
         <v>100.5</v>
       </c>
-      <c r="W5" t="n">
-        <v>100.6</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -838,9 +824,6 @@
       <c r="V6" t="n">
         <v>101.9</v>
       </c>
-      <c r="W6" t="n">
-        <v>100.9</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -911,13 +894,12 @@
       <c r="V7" t="n">
         <v>101.7</v>
       </c>
-      <c r="W7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1"/>
     <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="O1:V1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/consumer_price_index2.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/consumer_price_index2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,16 @@
           <t>сен</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>окт</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>ноя</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -622,6 +632,12 @@
       <c r="W3" t="n">
         <v>100.6</v>
       </c>
+      <c r="X3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -695,6 +711,12 @@
       <c r="W4" t="n">
         <v>100.3</v>
       </c>
+      <c r="X4" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>100.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -768,6 +790,12 @@
       <c r="W5" t="n">
         <v>100.6</v>
       </c>
+      <c r="X5" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>100.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -841,6 +869,12 @@
       <c r="W6" t="n">
         <v>100.9</v>
       </c>
+      <c r="X6" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>101.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -911,13 +945,21 @@
       <c r="V7" t="n">
         <v>101.7</v>
       </c>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>104</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>98.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1"/>
     <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="O1:Y1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
